--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Secret\Data Structures\Love babar DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51E7890-C561-448C-9804-6C2D45F698E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7FE558-A959-459F-B172-726DEC75B895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1861,7 +1861,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1938,7 +1938,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Secret\Data Structures\Love babar DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7FE558-A959-459F-B172-726DEC75B895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A9738-7FF0-47A3-90E8-B374DD79B37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>yes!</t>
   </si>
 </sst>
 </file>
@@ -1861,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1949,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
